--- a/dal, subji, kadhi/Dal/yellow moong dal/Yellow Moong dal Gauranga P.xlsx
+++ b/dal, subji, kadhi/Dal/yellow moong dal/Yellow Moong dal Gauranga P.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TranscendCard/sourcetree/nandini_recipies/dal, subji, kadhi/Dal/yellow moong dal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\Dal\yellow moong dal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8281CF95-C297-A541-8938-F7A7F881D709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715966B9-A38B-43A3-9507-936DEFA23366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>green chilli</t>
   </si>
   <si>
-    <t>ginger</t>
-  </si>
-  <si>
     <t>Jeera powder</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>taste rating</t>
+  </si>
+  <si>
+    <t>ginger (no in summer)</t>
   </si>
 </sst>
 </file>
@@ -165,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +197,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +252,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -585,21 +597,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -625,7 +637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -639,19 +651,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B23" si="0">(E3/F3)*D3</f>
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -660,19 +672,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5">
         <f>(E4/F4)*D4</f>
-        <v>5.625</v>
+        <v>4.5</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
@@ -681,32 +693,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -718,19 +730,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>0.75</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
         <v>1.5</v>
@@ -739,47 +751,47 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
         <v>38</v>
       </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>1.875</v>
+        <v>1.5</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -788,19 +800,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>1.875</v>
+        <v>1.5</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -809,19 +821,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -830,19 +842,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>0.75</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
         <v>1.5</v>
@@ -851,19 +863,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -872,19 +884,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>0.78125</v>
+        <v>0.625</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1">
         <v>1.25</v>
@@ -893,19 +905,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -914,32 +926,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>1.875</v>
+        <v>1.5</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
@@ -948,19 +960,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
-        <v>0.78125</v>
+        <v>0.625</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
         <v>1.25</v>
@@ -969,19 +981,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -990,25 +1002,25 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
-        <v>0.15625</v>
+        <v>0.2</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="F20" s="1">
         <v>8</v>
@@ -1017,40 +1029,40 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1059,19 +1071,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="0"/>
-        <v>1.5625</v>
+        <v>1.25</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
         <v>2.5</v>
@@ -1080,7 +1092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
